--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>475</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>503</v>
       </c>
       <c r="C2" t="n">
-        <v>160</v>
+        <v>547</v>
       </c>
       <c r="D2" t="n">
-        <v>3.254148995679113</v>
+        <v>1.572633986707737</v>
       </c>
       <c r="E2" t="n">
-        <v>2.637252999250202</v>
+        <v>0.8342421673937528</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6168959964289108</v>
+        <v>-0.7383918193139847</v>
       </c>
       <c r="G2" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>83.77354364298995</v>
+        <v>24.60020757444863</v>
       </c>
       <c r="I2" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K2" t="n">
-        <v>239.0849093030726</v>
+        <v>91.98167304386772</v>
       </c>
       <c r="L2" t="n">
-        <v>7.994701377004472</v>
+        <v>5.721649822507786</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.705902396311986</v>
+        <v>0.6698991892713715</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6941176470588235</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1219437165245873</v>
+        <v>0.04951986324418742</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9957068017157714</v>
+        <v>0.9417875007772661</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>632</v>
+        <v>1347</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,73 +643,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>443</v>
+        <v>547</v>
       </c>
       <c r="B3" t="n">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="C3" t="n">
-        <v>1020</v>
+        <v>658</v>
       </c>
       <c r="D3" t="n">
-        <v>3.217053127960502</v>
+        <v>2.452963103342634</v>
       </c>
       <c r="E3" t="n">
-        <v>2.892637694147834</v>
+        <v>1.71457128402865</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3244154338126671</v>
+        <v>-0.7383918193139847</v>
       </c>
       <c r="G3" t="n">
-        <v>577</v>
+        <v>111</v>
       </c>
       <c r="H3" t="n">
-        <v>102.776810172172</v>
+        <v>105.0616344378418</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>526.3875468190824</v>
+        <v>198.5160477042936</v>
       </c>
       <c r="L3" t="n">
-        <v>5.793794336106433</v>
+        <v>8.924515191383074</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(910), 'value': np.float64(1.1836060567715625), 'amplitude': np.float64(1.5080214905842295), 'start_idx': np.int64(881), 'end_idx': np.int64(943), 'duration': np.float64(62.0), 'fwhm': np.float64(38.58639702838286), 'rise_time': np.float64(29.0), 'decay_time': np.float64(33.0), 'auc': np.float64(64.05486489261645)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6978544175732774</v>
+        <v>0.6909900350044504</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1203883495145631</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5253362540721749</v>
+        <v>0.0456138297679391</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4344166561522131</v>
+        <v>0.9852126958615574</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>633</v>
+        <v>1348</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>394</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>422</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>538</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>3.200186313206407</v>
+        <v>3.367804004878542</v>
       </c>
       <c r="E4" t="n">
-        <v>2.515934990937611</v>
+        <v>2.744870668061326</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6842513222687963</v>
+        <v>-0.6229333368172153</v>
       </c>
       <c r="G4" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" t="n">
-        <v>67.68620323784813</v>
+        <v>74.72569055539449</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J4" t="n">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n">
-        <v>207.2674693202784</v>
+        <v>242.0059611464389</v>
       </c>
       <c r="L4" t="n">
-        <v>7.742197268711396</v>
+        <v>8.175672713380978</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.9460075264088834</v>
+        <v>0.6769149654544145</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.6781609195402298</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2897684033400365</v>
+        <v>0.150726556564359</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9735315094601037</v>
+        <v>0.9939084583364125</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>634</v>
+        <v>1349</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>538</v>
+        <v>453</v>
       </c>
       <c r="B5" t="n">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="C5" t="n">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="D5" t="n">
-        <v>2.304255709277597</v>
+        <v>1.739026666922855</v>
       </c>
       <c r="E5" t="n">
-        <v>1.6200043870088</v>
+        <v>1.378338357469317</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6842513222687963</v>
+        <v>-0.3606883094535381</v>
       </c>
       <c r="G5" t="n">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="H5" t="n">
-        <v>53.03346738385164</v>
+        <v>52.37974723745361</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="n">
-        <v>171.4249444340319</v>
+        <v>122.6581913493364</v>
       </c>
       <c r="L5" t="n">
-        <v>5.574676132186494</v>
+        <v>2.808116810515965</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.9126174217725598</v>
+        <v>0.6814931802288656</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4</v>
+        <v>0.7790697674418605</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2532578161916059</v>
+        <v>0.4258221719096347</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9707563151065636</v>
+        <v>0.9048319394159882</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>635</v>
+        <v>1350</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>153</v>
+        <v>463</v>
       </c>
       <c r="B6" t="n">
-        <v>215</v>
+        <v>483</v>
       </c>
       <c r="C6" t="n">
-        <v>295</v>
+        <v>575</v>
       </c>
       <c r="D6" t="n">
-        <v>1.782509022921778</v>
+        <v>2.535734459901767</v>
       </c>
       <c r="E6" t="n">
-        <v>1.094842150384624</v>
+        <v>1.736729044138119</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.687666872537154</v>
+        <v>-0.7990054157636479</v>
       </c>
       <c r="G6" t="n">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H6" t="n">
-        <v>73.83805980605553</v>
+        <v>18.39133286180714</v>
       </c>
       <c r="I6" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K6" t="n">
-        <v>157.7397819379197</v>
+        <v>225.9715429865094</v>
       </c>
       <c r="L6" t="n">
-        <v>6.208772528421769</v>
+        <v>9.987882336301755</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.5356753333163349</v>
+        <v>0.7758580494467244</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.775</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="R6" t="n">
-        <v>1.00342580187484</v>
+        <v>0.179783574270599</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3574378733324085</v>
+        <v>0.7848508214141825</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>636</v>
+        <v>1351</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>909</v>
+        <v>444</v>
       </c>
       <c r="B7" t="n">
-        <v>942</v>
+        <v>504</v>
       </c>
       <c r="C7" t="n">
-        <v>1025</v>
+        <v>730</v>
       </c>
       <c r="D7" t="n">
-        <v>2.897320398711358</v>
+        <v>3.295504604383322</v>
       </c>
       <c r="E7" t="n">
-        <v>2.323156258223735</v>
+        <v>2.984988607276368</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.574164140487623</v>
+        <v>-0.3105159971069534</v>
       </c>
       <c r="G7" t="n">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="H7" t="n">
-        <v>66.44958580978277</v>
+        <v>101.584347628649</v>
       </c>
       <c r="I7" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K7" t="n">
-        <v>267.571545573114</v>
+        <v>360.2038543272253</v>
       </c>
       <c r="L7" t="n">
-        <v>16.24138640386949</v>
+        <v>5.944225828408449</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7479183850447408</v>
+        <v>0.9331762090947828</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3975903614457831</v>
+        <v>0.2654867256637168</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09149038766999822</v>
+        <v>0.1922680118709129</v>
       </c>
       <c r="S7" t="n">
-        <v>0.85735724463573</v>
+        <v>0.9075944969109941</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>637</v>
+        <v>1352</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B8" t="n">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C8" t="n">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D8" t="n">
-        <v>3.132967356609555</v>
+        <v>3.071625060481978</v>
       </c>
       <c r="E8" t="n">
-        <v>2.543356467076265</v>
+        <v>2.437524297189513</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5896108895332908</v>
+        <v>-0.6341007632924649</v>
       </c>
       <c r="G8" t="n">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="H8" t="n">
-        <v>40.50798923314059</v>
+        <v>19.21968248339198</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>226.774677329574</v>
+        <v>127.6597731349111</v>
       </c>
       <c r="L8" t="n">
-        <v>24.04948230930307</v>
+        <v>27.09802049971918</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.9170181351302962</v>
+        <v>0.7966922488529176</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="R8" t="n">
-        <v>0.407806158094036</v>
+        <v>0.1790581324586654</v>
       </c>
       <c r="S8" t="n">
-        <v>0.982944631725672</v>
+        <v>0.9715886647454075</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>638</v>
+        <v>1353</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>734</v>
+        <v>210</v>
       </c>
       <c r="B9" t="n">
-        <v>759</v>
+        <v>228</v>
       </c>
       <c r="C9" t="n">
-        <v>914</v>
+        <v>380</v>
       </c>
       <c r="D9" t="n">
-        <v>2.029189621472214</v>
+        <v>1.951943935381188</v>
       </c>
       <c r="E9" t="n">
-        <v>1.432173997679101</v>
+        <v>1.317843172088723</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5970156237931126</v>
+        <v>-0.6341007632924649</v>
       </c>
       <c r="G9" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H9" t="n">
-        <v>36.05982695625858</v>
+        <v>17.3844110075174</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4682549999487</v>
+        <v>193.6771619403364</v>
       </c>
       <c r="L9" t="n">
-        <v>12.20781362484184</v>
+        <v>17.22014104382982</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7845414573318955</v>
+        <v>0.7811409652449608</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3104801498912678</v>
+        <v>0.4258827564782133</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7018114947469518</v>
+        <v>0.9312295043109691</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>639</v>
+        <v>1354</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>914</v>
+        <v>380</v>
       </c>
       <c r="B10" t="n">
-        <v>950</v>
+        <v>405</v>
       </c>
       <c r="C10" t="n">
-        <v>1025</v>
+        <v>492</v>
       </c>
       <c r="D10" t="n">
-        <v>3.417163656500756</v>
+        <v>0.5763343794313129</v>
       </c>
       <c r="E10" t="n">
-        <v>2.820148032707643</v>
+        <v>-0.05776638386115193</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5970156237931126</v>
+        <v>-0.6341007632924649</v>
       </c>
       <c r="G10" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H10" t="n">
-        <v>32.93329686501988</v>
+        <v>69.51437580320663</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K10" t="n">
-        <v>230.8037025943352</v>
+        <v>49.50524748420224</v>
       </c>
       <c r="L10" t="n">
-        <v>20.55800828208381</v>
+        <v>5.084448954870833</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8505354728267778</v>
+        <v>0.7770168323066442</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.48</v>
+        <v>0.2873563218390804</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3190164692244915</v>
+        <v>0.09410486326016726</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9291233514970306</v>
+        <v>0.7557520569265442</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>640</v>
+        <v>1355</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>912</v>
+        <v>757</v>
       </c>
       <c r="B11" t="n">
-        <v>946</v>
+        <v>862</v>
       </c>
       <c r="C11" t="n">
         <v>1025</v>
       </c>
       <c r="D11" t="n">
-        <v>3.844856667750397</v>
+        <v>2.784541668267552</v>
       </c>
       <c r="E11" t="n">
-        <v>3.341531889926828</v>
+        <v>2.390956174522442</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5033247778235685</v>
+        <v>-0.3935854937451099</v>
       </c>
       <c r="G11" t="n">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="H11" t="n">
-        <v>41.37953661160702</v>
+        <v>76.95140143296192</v>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="J11" t="n">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K11" t="n">
-        <v>236.5474802367961</v>
+        <v>346.2184888823034</v>
       </c>
       <c r="L11" t="n">
-        <v>10.66899117785722</v>
+        <v>4.107135194387559</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,36 +1380,1326 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8186333714790581</v>
+        <v>0.5312951453255886</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4303797468354431</v>
+        <v>0.6441717791411042</v>
       </c>
       <c r="R11" t="n">
-        <v>0.323952971886481</v>
+        <v>1.207402530415063</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5436037219407601</v>
+        <v>0.5041219873091386</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>1356</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>396</v>
+      </c>
+      <c r="B12" t="n">
+        <v>421</v>
+      </c>
+      <c r="C12" t="n">
+        <v>541</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.252612510493831</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.58436047381611</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.6682520366777212</v>
+      </c>
+      <c r="G12" t="n">
+        <v>145</v>
+      </c>
+      <c r="H12" t="n">
+        <v>66.91825426482535</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>120</v>
+      </c>
+      <c r="K12" t="n">
+        <v>206.6203354873915</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.890822341946873</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9310100330277313</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3288309976774564</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9714355565890325</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>1357</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>541</v>
+      </c>
+      <c r="B13" t="n">
+        <v>570</v>
+      </c>
+      <c r="C13" t="n">
+        <v>659</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.366311829980051</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.698059793302329</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6682520366777212</v>
+      </c>
+      <c r="G13" t="n">
+        <v>118</v>
+      </c>
+      <c r="H13" t="n">
+        <v>51.4322167008828</v>
+      </c>
+      <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>89</v>
+      </c>
+      <c r="K13" t="n">
+        <v>169.9182471565322</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.740661144165879</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9472708542791942</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3258426966292135</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2451757230055966</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9555839446478719</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>1358</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>110</v>
+      </c>
+      <c r="B14" t="n">
+        <v>131</v>
+      </c>
+      <c r="C14" t="n">
+        <v>170</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.369464011728709</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8878557072407465</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.4816083044879622</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25.50875760391366</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>39</v>
+      </c>
+      <c r="K14" t="n">
+        <v>45.50300201747469</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.115663409657091</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8422194352639236</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.2452283920164457</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.865425695632542</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>1359</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>295</v>
+      </c>
+      <c r="B15" t="n">
+        <v>346</v>
+      </c>
+      <c r="C15" t="n">
+        <v>502</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.558692322416642</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.872958489210824</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.6857338332058179</v>
+      </c>
+      <c r="G15" t="n">
+        <v>207</v>
+      </c>
+      <c r="H15" t="n">
+        <v>127.4567852506516</v>
+      </c>
+      <c r="I15" t="n">
+        <v>51</v>
+      </c>
+      <c r="J15" t="n">
+        <v>156</v>
+      </c>
+      <c r="K15" t="n">
+        <v>276.9096493765927</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.864832009107579</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0.7218044257186391</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3269230769230769</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1940712692730723</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8514555295358459</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>1360</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>911</v>
+      </c>
+      <c r="B16" t="n">
+        <v>941</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.965466429224394</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.384127776426189</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.5813386527982051</v>
+      </c>
+      <c r="G16" t="n">
+        <v>114</v>
+      </c>
+      <c r="H16" t="n">
+        <v>64.45642696486152</v>
+      </c>
+      <c r="I16" t="n">
+        <v>30</v>
+      </c>
+      <c r="J16" t="n">
+        <v>84</v>
+      </c>
+      <c r="K16" t="n">
+        <v>265.0508109559263</v>
+      </c>
+      <c r="L16" t="n">
+        <v>16.68043823398762</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0.769058621836569</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.09738383642457329</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8398842197432874</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>1361</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>186</v>
+      </c>
+      <c r="B17" t="n">
+        <v>215</v>
+      </c>
+      <c r="C17" t="n">
+        <v>346</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.682148304439195</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.000454044138206</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.6816942603009886</v>
+      </c>
+      <c r="G17" t="n">
+        <v>160</v>
+      </c>
+      <c r="H17" t="n">
+        <v>45.03755425775614</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>131</v>
+      </c>
+      <c r="K17" t="n">
+        <v>163.0931217352314</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.667308813260658</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8365336856571757</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2213740458015267</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3394793914409853</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.6216916850532013</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>1362</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>110</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.661848058892921</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.074563117307668</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.5872849415852535</v>
+      </c>
+      <c r="G18" t="n">
+        <v>110</v>
+      </c>
+      <c r="H18" t="n">
+        <v>68.64550851960904</v>
+      </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>62</v>
+      </c>
+      <c r="K18" t="n">
+        <v>267.7866648242269</v>
+      </c>
+      <c r="L18" t="n">
+        <v>27.96092384372202</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0.7671108582386761</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4022887047118777</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9725289899367283</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>1363</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>110</v>
+      </c>
+      <c r="B19" t="n">
+        <v>142</v>
+      </c>
+      <c r="C19" t="n">
+        <v>233</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.18454655392014</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.597261612334887</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.5872849415852535</v>
+      </c>
+      <c r="G19" t="n">
+        <v>123</v>
+      </c>
+      <c r="H19" t="n">
+        <v>35.32450913380102</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32</v>
+      </c>
+      <c r="J19" t="n">
+        <v>91</v>
+      </c>
+      <c r="K19" t="n">
+        <v>226.1719257836171</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24.31637310966654</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9114046144586808</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3516483516483517</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4236886217548675</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.9779294998872666</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>1364</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>233</v>
+      </c>
+      <c r="B20" t="n">
+        <v>250</v>
+      </c>
+      <c r="C20" t="n">
+        <v>272</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6824068165838657</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.09512187499861219</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5872849415852535</v>
+      </c>
+      <c r="G20" t="n">
+        <v>39</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15.05194572261678</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17</v>
+      </c>
+      <c r="J20" t="n">
+        <v>22</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22.25555274587233</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.210681798388677</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0.6773287835105041</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.07224539412674486</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.9441709807955281</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>1365</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>272</v>
+      </c>
+      <c r="B21" t="n">
+        <v>292</v>
+      </c>
+      <c r="C21" t="n">
+        <v>320</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7746941908858622</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1874092493006088</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.5872849415852535</v>
+      </c>
+      <c r="G21" t="n">
+        <v>48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>23.27688943063924</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" t="n">
+        <v>28</v>
+      </c>
+      <c r="K21" t="n">
+        <v>25.69582462154687</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.915364298343449</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0.7650810521370582</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2278835599736856</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8102808080351814</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>1366</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>795</v>
+      </c>
+      <c r="B22" t="n">
+        <v>826</v>
+      </c>
+      <c r="C22" t="n">
+        <v>904</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.290016769710107</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.576363107951665</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.7136536617584419</v>
+      </c>
+      <c r="G22" t="n">
+        <v>109</v>
+      </c>
+      <c r="H22" t="n">
+        <v>90.89444980938435</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31</v>
+      </c>
+      <c r="J22" t="n">
+        <v>78</v>
+      </c>
+      <c r="K22" t="n">
+        <v>154.57232791449</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.994185852608084</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0.831089155653567</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4213554102507962</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.7962312992236309</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>1367</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>734</v>
+      </c>
+      <c r="B23" t="n">
+        <v>759</v>
+      </c>
+      <c r="C23" t="n">
+        <v>791</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.080629173353293</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.4816808396161</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.5989483337371924</v>
+      </c>
+      <c r="G23" t="n">
+        <v>57</v>
+      </c>
+      <c r="H23" t="n">
+        <v>35.11273171469668</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>32</v>
+      </c>
+      <c r="K23" t="n">
+        <v>75.65750427541685</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12.15781803187332</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0.7715295556103218</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.2999242551519791</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.9954811412509889</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>1368</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>916</v>
+      </c>
+      <c r="B24" t="n">
+        <v>948</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.49014014322721</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.891191809490017</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.5989483337371924</v>
+      </c>
+      <c r="G24" t="n">
+        <v>109</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31.04341375418016</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32</v>
+      </c>
+      <c r="J24" t="n">
+        <v>77</v>
+      </c>
+      <c r="K24" t="n">
+        <v>229.8017767248968</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20.39406604046863</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8685681207091597</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4155844155844156</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3356891976004123</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9211057787135719</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>1369</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>835</v>
+      </c>
+      <c r="B25" t="n">
+        <v>863</v>
+      </c>
+      <c r="C25" t="n">
+        <v>907</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.132677705762108</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.584811959894965</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.5478657458671421</v>
+      </c>
+      <c r="G25" t="n">
+        <v>72</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27.0965482939622</v>
+      </c>
+      <c r="I25" t="n">
+        <v>28</v>
+      </c>
+      <c r="J25" t="n">
+        <v>44</v>
+      </c>
+      <c r="K25" t="n">
+        <v>128.5687326162934</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.327988782489186</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0.6529653801487745</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1672669838184216</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.9681656711704802</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>1370</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>914</v>
+      </c>
+      <c r="B26" t="n">
+        <v>944</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.970572359449619</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.466480272173405</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.5040920872762145</v>
+      </c>
+      <c r="G26" t="n">
+        <v>111</v>
+      </c>
+      <c r="H26" t="n">
+        <v>42.53509503748978</v>
+      </c>
+      <c r="I26" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" t="n">
+        <v>81</v>
+      </c>
+      <c r="K26" t="n">
+        <v>236.599841496245</v>
+      </c>
+      <c r="L26" t="n">
+        <v>11.00026937563504</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8543001407633418</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.3113803510653046</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5510036186030677</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
           <t>n26</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>641</v>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="U26" t="n">
+        <v>1371</v>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,34 +563,34 @@
         <v>503</v>
       </c>
       <c r="C2" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D2" t="n">
-        <v>1.572633986707737</v>
+        <v>1.563937505429216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8342421673937528</v>
+        <v>0.823458451025633</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7383918193139847</v>
+        <v>-0.7404790544035833</v>
       </c>
       <c r="G2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>24.60020757444863</v>
+        <v>25.44595068520306</v>
       </c>
       <c r="I2" t="n">
         <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="n">
-        <v>91.98167304386772</v>
+        <v>91.01846982159361</v>
       </c>
       <c r="L2" t="n">
-        <v>5.721649822507786</v>
+        <v>5.689930014798405</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6698991892713715</v>
+        <v>0.6680834323079831</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04951986324418742</v>
+        <v>0.04150999142725286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9417875007772661</v>
+        <v>0.9493658324316953</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1347</v>
+        <v>1065</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3" t="n">
         <v>581</v>
@@ -652,31 +652,31 @@
         <v>658</v>
       </c>
       <c r="D3" t="n">
-        <v>2.452963103342634</v>
+        <v>2.450440683614116</v>
       </c>
       <c r="E3" t="n">
-        <v>1.71457128402865</v>
+        <v>1.709961629210533</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7383918193139847</v>
+        <v>-0.7404790544035833</v>
       </c>
       <c r="G3" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0616344378418</v>
+        <v>104.901553159745</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5160477042936</v>
+        <v>199.8278580345632</v>
       </c>
       <c r="L3" t="n">
-        <v>8.924515191383074</v>
+        <v>8.915213009967763</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6909900350044504</v>
+        <v>0.6875500081015967</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4415584415584415</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0456138297679391</v>
+        <v>0.04694703495251907</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9852126958615574</v>
+        <v>0.9861629810539708</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1348</v>
+        <v>1066</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -735,34 +735,34 @@
         <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>3.367804004878542</v>
+        <v>3.332625574518822</v>
       </c>
       <c r="E4" t="n">
-        <v>2.744870668061326</v>
+        <v>2.710821625434339</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6229333368172153</v>
+        <v>-0.6218039490844838</v>
       </c>
       <c r="G4" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" t="n">
-        <v>74.72569055539449</v>
+        <v>85.52058773012695</v>
       </c>
       <c r="I4" t="n">
         <v>59</v>
       </c>
       <c r="J4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4" t="n">
-        <v>242.0059611464389</v>
+        <v>240.9008205158536</v>
       </c>
       <c r="L4" t="n">
-        <v>8.175672713380978</v>
+        <v>8.12098503451643</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6769149654544145</v>
+        <v>0.666277955389884</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6781609195402298</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="R4" t="n">
-        <v>0.150726556564359</v>
+        <v>0.1409076078241109</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9939084583364125</v>
+        <v>0.994555170932709</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1349</v>
+        <v>1067</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="B5" t="n">
-        <v>520</v>
+        <v>445</v>
       </c>
       <c r="C5" t="n">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="D5" t="n">
-        <v>1.739026666922855</v>
+        <v>2.539071360273951</v>
       </c>
       <c r="E5" t="n">
-        <v>1.378338357469317</v>
+        <v>1.748348648699457</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3606883094535381</v>
+        <v>-0.7907227115744939</v>
       </c>
       <c r="G5" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H5" t="n">
-        <v>52.37974723745361</v>
+        <v>188.2286927821044</v>
       </c>
       <c r="I5" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K5" t="n">
-        <v>122.6581913493364</v>
+        <v>331.7289661988519</v>
       </c>
       <c r="L5" t="n">
-        <v>2.808116810515965</v>
+        <v>9.992503148967907</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6814931802288656</v>
+        <v>0.7273274463741874</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7790697674418605</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4258221719096347</v>
+        <v>0.1199482366472783</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9048319394159882</v>
+        <v>0.6710996556190294</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1350</v>
+        <v>1068</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,73 +901,73 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B6" t="n">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="C6" t="n">
-        <v>575</v>
+        <v>1018</v>
       </c>
       <c r="D6" t="n">
-        <v>2.535734459901767</v>
+        <v>3.275827067405086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.736729044138119</v>
+        <v>2.959334265453254</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7990054157636479</v>
+        <v>-0.3164928019518318</v>
       </c>
       <c r="G6" t="n">
-        <v>112</v>
+        <v>574</v>
       </c>
       <c r="H6" t="n">
-        <v>18.39133286180714</v>
+        <v>101.9833375367018</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J6" t="n">
-        <v>92</v>
+        <v>514</v>
       </c>
       <c r="K6" t="n">
-        <v>225.9715429865094</v>
+        <v>521.5559289115824</v>
       </c>
       <c r="L6" t="n">
-        <v>9.987882336301755</v>
+        <v>5.906893527263517</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(911), 'value': np.float64(1.2181114193459108), 'amplitude': np.float64(1.5346042212977427), 'start_idx': np.int64(881), 'end_idx': np.int64(942), 'duration': np.float64(61.0), 'fwhm': np.float64(37.36710386139532), 'rise_time': np.float64(30.0), 'decay_time': np.float64(31.0), 'auc': np.float64(62.94148899839132)}]</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7758580494467244</v>
+        <v>0.6936608507780044</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.1167315175097276</v>
       </c>
       <c r="R6" t="n">
-        <v>0.179783574270599</v>
+        <v>0.5160875024441668</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7848508214141825</v>
+        <v>0.423025165800367</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1351</v>
+        <v>1069</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>444</v>
+        <v>161</v>
       </c>
       <c r="B7" t="n">
-        <v>504</v>
+        <v>180</v>
       </c>
       <c r="C7" t="n">
-        <v>730</v>
+        <v>210</v>
       </c>
       <c r="D7" t="n">
-        <v>3.295504604383322</v>
+        <v>3.056632153008458</v>
       </c>
       <c r="E7" t="n">
-        <v>2.984988607276368</v>
+        <v>2.422046452451358</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3105159971069534</v>
+        <v>-0.6345857005570998</v>
       </c>
       <c r="G7" t="n">
-        <v>286</v>
+        <v>49</v>
       </c>
       <c r="H7" t="n">
-        <v>101.584347628649</v>
+        <v>19.07985698112299</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>360.2038543272253</v>
+        <v>127.7504181530221</v>
       </c>
       <c r="L7" t="n">
-        <v>5.944225828408449</v>
+        <v>27.22213830364457</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9331762090947828</v>
+        <v>0.8042254729750643</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2654867256637168</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1922680118709129</v>
+        <v>0.1707504109566336</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9075944969109941</v>
+        <v>0.9678702349112638</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1352</v>
+        <v>1070</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="B8" t="n">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="C8" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="D8" t="n">
-        <v>3.071625060481978</v>
+        <v>1.942773581970401</v>
       </c>
       <c r="E8" t="n">
-        <v>2.437524297189513</v>
+        <v>1.308187881413301</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6341007632924649</v>
+        <v>-0.6345857005570998</v>
       </c>
       <c r="G8" t="n">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="H8" t="n">
-        <v>19.21968248339198</v>
+        <v>16.61263633090431</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="K8" t="n">
-        <v>127.6597731349111</v>
+        <v>193.698873624154</v>
       </c>
       <c r="L8" t="n">
-        <v>27.09802049971918</v>
+        <v>17.30219682764649</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7966922488529176</v>
+        <v>0.7808407442551267</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1790581324586654</v>
+        <v>0.4247998883347519</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9715886647454075</v>
+        <v>0.9331805001993974</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1353</v>
+        <v>1071</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="B9" t="n">
-        <v>228</v>
+        <v>406</v>
       </c>
       <c r="C9" t="n">
-        <v>380</v>
+        <v>492</v>
       </c>
       <c r="D9" t="n">
-        <v>1.951943935381188</v>
+        <v>0.573020297521779</v>
       </c>
       <c r="E9" t="n">
-        <v>1.317843172088723</v>
+        <v>-0.06156540303532089</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6341007632924649</v>
+        <v>-0.6345857005570998</v>
       </c>
       <c r="G9" t="n">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="H9" t="n">
-        <v>17.3844110075174</v>
+        <v>68.52013994442387</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="K9" t="n">
-        <v>193.6771619403364</v>
+        <v>49.56596623104131</v>
       </c>
       <c r="L9" t="n">
-        <v>17.22014104382982</v>
+        <v>5.103276092473356</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7811409652449608</v>
+        <v>0.7714890908741638</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4258827564782133</v>
+        <v>0.09500844561135276</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9312295043109691</v>
+        <v>0.7596450747035596</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1354</v>
+        <v>1072</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>380</v>
+        <v>757</v>
       </c>
       <c r="B10" t="n">
-        <v>405</v>
+        <v>863</v>
       </c>
       <c r="C10" t="n">
-        <v>492</v>
+        <v>1025</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5763343794313129</v>
+        <v>2.769693740808389</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05776638386115193</v>
+        <v>2.377832544268072</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6341007632924649</v>
+        <v>-0.3918611965403173</v>
       </c>
       <c r="G10" t="n">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="H10" t="n">
-        <v>69.51437580320663</v>
+        <v>76.77097801899083</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="K10" t="n">
-        <v>49.50524748420224</v>
+        <v>345.4769660328772</v>
       </c>
       <c r="L10" t="n">
-        <v>5.084448954870833</v>
+        <v>4.092749287776691</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7770168323066442</v>
+        <v>0.5298833995514086</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2873563218390804</v>
+        <v>0.654320987654321</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09410486326016726</v>
+        <v>1.155091464445347</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7557520569265442</v>
+        <v>0.5043814007021277</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1355</v>
+        <v>1073</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>757</v>
+        <v>395</v>
       </c>
       <c r="B11" t="n">
-        <v>862</v>
+        <v>421</v>
       </c>
       <c r="C11" t="n">
-        <v>1025</v>
+        <v>540</v>
       </c>
       <c r="D11" t="n">
-        <v>2.784541668267552</v>
+        <v>3.236976785452877</v>
       </c>
       <c r="E11" t="n">
-        <v>2.390956174522442</v>
+        <v>2.561443075299958</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3935854937451099</v>
+        <v>-0.6755337101529189</v>
       </c>
       <c r="G11" t="n">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="H11" t="n">
-        <v>76.95140143296192</v>
+        <v>67.21415163877504</v>
       </c>
       <c r="I11" t="n">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="K11" t="n">
-        <v>346.2184888823034</v>
+        <v>207.0970523151208</v>
       </c>
       <c r="L11" t="n">
-        <v>4.107135194387559</v>
+        <v>7.841153259847735</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.5312951453255886</v>
+        <v>0.9357181263921107</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6441717791411042</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="R11" t="n">
-        <v>1.207402530415063</v>
+        <v>0.3046036632939863</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5041219873091386</v>
+        <v>0.9724758646001087</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1356</v>
+        <v>1074</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>396</v>
+        <v>540</v>
       </c>
       <c r="B12" t="n">
-        <v>421</v>
+        <v>570</v>
       </c>
       <c r="C12" t="n">
-        <v>541</v>
+        <v>658</v>
       </c>
       <c r="D12" t="n">
-        <v>3.252612510493831</v>
+        <v>2.341162448554669</v>
       </c>
       <c r="E12" t="n">
-        <v>2.58436047381611</v>
+        <v>1.66562873840175</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6682520366777212</v>
+        <v>-0.6755337101529189</v>
       </c>
       <c r="G12" t="n">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H12" t="n">
-        <v>66.91825426482535</v>
+        <v>51.92670031209377</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="K12" t="n">
-        <v>206.6203354873915</v>
+        <v>170.4134543483376</v>
       </c>
       <c r="L12" t="n">
-        <v>7.890822341946873</v>
+        <v>5.6711600922863</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.9310100330277313</v>
+        <v>0.939847666045213</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3288309976774564</v>
+        <v>0.2544549557080534</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9714355565890325</v>
+        <v>0.961821124850054</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1357</v>
+        <v>1075</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>541</v>
+        <v>109</v>
       </c>
       <c r="B13" t="n">
-        <v>570</v>
+        <v>132</v>
       </c>
       <c r="C13" t="n">
-        <v>659</v>
+        <v>170</v>
       </c>
       <c r="D13" t="n">
-        <v>2.366311829980051</v>
+        <v>1.347071506131068</v>
       </c>
       <c r="E13" t="n">
-        <v>1.698059793302329</v>
+        <v>0.8693615742205101</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6682520366777212</v>
+        <v>-0.477709931910558</v>
       </c>
       <c r="G13" t="n">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="H13" t="n">
-        <v>51.4322167008828</v>
+        <v>25.67755858700481</v>
       </c>
       <c r="I13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>169.9182471565322</v>
+        <v>44.96615676155574</v>
       </c>
       <c r="L13" t="n">
-        <v>5.740661144165879</v>
+        <v>7.044072316882882</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9472708542791942</v>
+        <v>0.8258282142576993</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3258426966292135</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2451757230055966</v>
+        <v>0.2591545936438167</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9555839446478719</v>
+        <v>0.8796768743173872</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1358</v>
+        <v>1076</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110</v>
+        <v>910</v>
       </c>
       <c r="B14" t="n">
-        <v>131</v>
+        <v>941</v>
       </c>
       <c r="C14" t="n">
-        <v>170</v>
+        <v>1025</v>
       </c>
       <c r="D14" t="n">
-        <v>1.369464011728709</v>
+        <v>2.942658502899066</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8878557072407465</v>
+        <v>2.363824969549535</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4816083044879622</v>
+        <v>-0.5788335333495314</v>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H14" t="n">
-        <v>25.50875760391366</v>
+        <v>65.05324598819993</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="K14" t="n">
-        <v>45.50300201747469</v>
+        <v>266.36673120692</v>
       </c>
       <c r="L14" t="n">
-        <v>7.115663409657091</v>
+        <v>16.54199442917514</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8422194352639236</v>
+        <v>0.7673768679848341</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2452283920164457</v>
+        <v>0.1003321679742166</v>
       </c>
       <c r="S14" t="n">
-        <v>0.865425695632542</v>
+        <v>0.8458869494072504</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1359</v>
+        <v>1077</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="B15" t="n">
+        <v>215</v>
+      </c>
+      <c r="C15" t="n">
         <v>346</v>
       </c>
-      <c r="C15" t="n">
-        <v>502</v>
-      </c>
       <c r="D15" t="n">
-        <v>2.558692322416642</v>
+        <v>1.67228026075298</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872958489210824</v>
+        <v>0.9838956400093641</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6857338332058179</v>
+        <v>-0.6883846207436155</v>
       </c>
       <c r="G15" t="n">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="H15" t="n">
-        <v>127.4567852506516</v>
+        <v>44.94707691294619</v>
       </c>
       <c r="I15" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="K15" t="n">
-        <v>276.9096493765927</v>
+        <v>164.1574481855053</v>
       </c>
       <c r="L15" t="n">
-        <v>8.864832009107579</v>
+        <v>3.648532054312104</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7218044257186391</v>
+        <v>0.8373717440027308</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.2213740458015267</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1940712692730723</v>
+        <v>0.3276784104814469</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8514555295358459</v>
+        <v>0.6268109636211647</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1360</v>
+        <v>1078</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>911</v>
+        <v>110</v>
       </c>
       <c r="B16" t="n">
-        <v>941</v>
+        <v>142</v>
       </c>
       <c r="C16" t="n">
-        <v>1025</v>
+        <v>233</v>
       </c>
       <c r="D16" t="n">
-        <v>2.965466429224394</v>
+        <v>3.165305215251262</v>
       </c>
       <c r="E16" t="n">
-        <v>2.384127776426189</v>
+        <v>2.578973580879895</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5813386527982051</v>
+        <v>-0.5863316343713671</v>
       </c>
       <c r="G16" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H16" t="n">
-        <v>64.45642696486152</v>
+        <v>37.82452555842278</v>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J16" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K16" t="n">
-        <v>265.0508109559263</v>
+        <v>226.0699496193639</v>
       </c>
       <c r="L16" t="n">
-        <v>16.68043823398762</v>
+        <v>24.24124202830516</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.769058621836569</v>
+        <v>0.9220229420804207</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="R16" t="n">
-        <v>0.09738383642457329</v>
+        <v>0.4225402561355663</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8398842197432874</v>
+        <v>0.9798294537741128</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1361</v>
+        <v>1079</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="B17" t="n">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C17" t="n">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="D17" t="n">
-        <v>1.682148304439195</v>
+        <v>0.684389302215985</v>
       </c>
       <c r="E17" t="n">
-        <v>1.000454044138206</v>
+        <v>0.09805766784461795</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6816942603009886</v>
+        <v>-0.5863316343713671</v>
       </c>
       <c r="G17" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>45.03755425775614</v>
+        <v>12.83371120940726</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="K17" t="n">
-        <v>163.0931217352314</v>
+        <v>22.73887829720272</v>
       </c>
       <c r="L17" t="n">
-        <v>3.667308813260658</v>
+        <v>5.241341857544575</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8365336856571757</v>
+        <v>0.6641313650244098</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2213740458015267</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3394793914409853</v>
+        <v>0.06769561491168216</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6216916850532013</v>
+        <v>0.9226364366939265</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1362</v>
+        <v>1080</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>292</v>
       </c>
       <c r="C18" t="n">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D18" t="n">
-        <v>3.661848058892921</v>
+        <v>0.76859873889664</v>
       </c>
       <c r="E18" t="n">
-        <v>3.074563117307668</v>
+        <v>0.1822671045252729</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5872849415852535</v>
+        <v>-0.5863316343713671</v>
       </c>
       <c r="G18" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H18" t="n">
-        <v>68.64550851960904</v>
+        <v>22.06182945006992</v>
       </c>
       <c r="I18" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="K18" t="n">
-        <v>267.7866648242269</v>
+        <v>24.99658764923785</v>
       </c>
       <c r="L18" t="n">
-        <v>27.96092384372202</v>
+        <v>5.886253231590681</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7671108582386761</v>
+        <v>0.7681663894516106</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4022887047118777</v>
+        <v>0.2137673000506414</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9725289899367283</v>
+        <v>0.8334342792663489</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1363</v>
+        <v>1081</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>795</v>
       </c>
       <c r="B19" t="n">
-        <v>142</v>
+        <v>826</v>
       </c>
       <c r="C19" t="n">
-        <v>233</v>
+        <v>903</v>
       </c>
       <c r="D19" t="n">
-        <v>3.18454655392014</v>
+        <v>2.296931570829702</v>
       </c>
       <c r="E19" t="n">
-        <v>2.597261612334887</v>
+        <v>1.581128962416278</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5872849415852535</v>
+        <v>-0.715802608413423</v>
       </c>
       <c r="G19" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H19" t="n">
-        <v>35.32450913380102</v>
+        <v>96.88021724178407</v>
       </c>
       <c r="I19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K19" t="n">
-        <v>226.1719257836171</v>
+        <v>154.0147372263383</v>
       </c>
       <c r="L19" t="n">
-        <v>24.31637310966654</v>
+        <v>9.039368803834799</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9114046144586808</v>
+        <v>0.8279090767142057</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3516483516483517</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4236886217548675</v>
+        <v>0.4179705698590794</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9779294998872666</v>
+        <v>0.8042336387843636</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1364</v>
+        <v>1082</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>233</v>
+        <v>734</v>
       </c>
       <c r="B20" t="n">
-        <v>250</v>
+        <v>759</v>
       </c>
       <c r="C20" t="n">
-        <v>272</v>
+        <v>791</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6824068165838657</v>
+        <v>2.072072506312121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09512187499861219</v>
+        <v>1.474111385512567</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5872849415852535</v>
+        <v>-0.5979611207995534</v>
       </c>
       <c r="G20" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H20" t="n">
-        <v>15.05194572261678</v>
+        <v>35.16900197490202</v>
       </c>
       <c r="I20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K20" t="n">
-        <v>22.25555274587233</v>
+        <v>75.53476464884876</v>
       </c>
       <c r="L20" t="n">
-        <v>5.210681798388677</v>
+        <v>12.22045595997145</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.6773287835105041</v>
+        <v>0.771525028074287</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.78125</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07224539412674486</v>
+        <v>0.289130421876379</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9441709807955281</v>
+        <v>0.995931169646911</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1365</v>
+        <v>1083</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>272</v>
+        <v>915</v>
       </c>
       <c r="B21" t="n">
-        <v>292</v>
+        <v>948</v>
       </c>
       <c r="C21" t="n">
-        <v>320</v>
+        <v>1025</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7746941908858622</v>
+        <v>3.459172092920936</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1874092493006088</v>
+        <v>2.861210972121382</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5872849415852535</v>
+        <v>-0.5979611207995534</v>
       </c>
       <c r="G21" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="H21" t="n">
-        <v>23.27688943063924</v>
+        <v>31.52564614308471</v>
       </c>
       <c r="I21" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="K21" t="n">
-        <v>25.69582462154687</v>
+        <v>230.1551227529124</v>
       </c>
       <c r="L21" t="n">
-        <v>5.915364298343449</v>
+        <v>20.40114913485317</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7650810521370582</v>
+        <v>0.8647062376973612</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2278835599736856</v>
+        <v>0.3385050353116005</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8102808080351814</v>
+        <v>0.9242913371199314</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1366</v>
+        <v>1084</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>795</v>
+        <v>835</v>
       </c>
       <c r="B22" t="n">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="C22" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D22" t="n">
-        <v>2.290016769710107</v>
+        <v>2.116467640169468</v>
       </c>
       <c r="E22" t="n">
-        <v>1.576363107951665</v>
+        <v>1.572163546165152</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7136536617584419</v>
+        <v>-0.5443040940043162</v>
       </c>
       <c r="G22" t="n">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="H22" t="n">
-        <v>90.89444980938435</v>
+        <v>27.81268236675953</v>
       </c>
       <c r="I22" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J22" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="K22" t="n">
-        <v>154.57232791449</v>
+        <v>126.966476372315</v>
       </c>
       <c r="L22" t="n">
-        <v>8.994185852608084</v>
+        <v>8.246173805619913</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.831089155653567</v>
+        <v>0.6480964763256045</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3974358974358974</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4213554102507962</v>
+        <v>0.1634546315499878</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7962312992236309</v>
+        <v>0.9771210757785466</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1367</v>
+        <v>1085</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>734</v>
+        <v>914</v>
       </c>
       <c r="B23" t="n">
-        <v>759</v>
+        <v>944</v>
       </c>
       <c r="C23" t="n">
-        <v>791</v>
+        <v>1025</v>
       </c>
       <c r="D23" t="n">
-        <v>2.080629173353293</v>
+        <v>3.928498226371113</v>
       </c>
       <c r="E23" t="n">
-        <v>1.4816808396161</v>
+        <v>3.424709846165058</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5989483337371924</v>
+        <v>-0.5037883802060554</v>
       </c>
       <c r="G23" t="n">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="H23" t="n">
-        <v>35.11273171469668</v>
+        <v>42.18165072888223</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>75.65750427541685</v>
+        <v>236.6628358426511</v>
       </c>
       <c r="L23" t="n">
-        <v>12.15781803187332</v>
+        <v>10.89079964078075</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7715295556103218</v>
+        <v>0.8545338319079118</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.78125</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2999242551519791</v>
+        <v>0.2966864581576695</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9954811412509889</v>
+        <v>0.5584603276955578</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1368</v>
+        <v>1086</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2442,264 +2442,6 @@
         </is>
       </c>
       <c r="X23" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>916</v>
-      </c>
-      <c r="B24" t="n">
-        <v>948</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.49014014322721</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.891191809490017</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.5989483337371924</v>
-      </c>
-      <c r="G24" t="n">
-        <v>109</v>
-      </c>
-      <c r="H24" t="n">
-        <v>31.04341375418016</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>77</v>
-      </c>
-      <c r="K24" t="n">
-        <v>229.8017767248968</v>
-      </c>
-      <c r="L24" t="n">
-        <v>20.39406604046863</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>0.8685681207091597</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.3356891976004123</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.9211057787135719</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>n24</t>
-        </is>
-      </c>
-      <c r="U24" t="n">
-        <v>1369</v>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>835</v>
-      </c>
-      <c r="B25" t="n">
-        <v>863</v>
-      </c>
-      <c r="C25" t="n">
-        <v>907</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.132677705762108</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.584811959894965</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.5478657458671421</v>
-      </c>
-      <c r="G25" t="n">
-        <v>72</v>
-      </c>
-      <c r="H25" t="n">
-        <v>27.0965482939622</v>
-      </c>
-      <c r="I25" t="n">
-        <v>28</v>
-      </c>
-      <c r="J25" t="n">
-        <v>44</v>
-      </c>
-      <c r="K25" t="n">
-        <v>128.5687326162934</v>
-      </c>
-      <c r="L25" t="n">
-        <v>8.327988782489186</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>0.6529653801487745</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.1672669838184216</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.9681656711704802</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>n25</t>
-        </is>
-      </c>
-      <c r="U25" t="n">
-        <v>1370</v>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>914</v>
-      </c>
-      <c r="B26" t="n">
-        <v>944</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.970572359449619</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.466480272173405</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.5040920872762145</v>
-      </c>
-      <c r="G26" t="n">
-        <v>111</v>
-      </c>
-      <c r="H26" t="n">
-        <v>42.53509503748978</v>
-      </c>
-      <c r="I26" t="n">
-        <v>30</v>
-      </c>
-      <c r="J26" t="n">
-        <v>81</v>
-      </c>
-      <c r="K26" t="n">
-        <v>236.599841496245</v>
-      </c>
-      <c r="L26" t="n">
-        <v>11.00026937563504</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>0.8543001407633418</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.3113803510653046</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.5510036186030677</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U26" t="n">
-        <v>1371</v>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>475</v>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>503</v>
       </c>
       <c r="C2" t="n">
-        <v>155</v>
+        <v>546</v>
       </c>
       <c r="D2" t="n">
-        <v>3.030953554296317</v>
+        <v>1.563937505429216</v>
       </c>
       <c r="E2" t="n">
-        <v>2.419592215479059</v>
+        <v>0.823458451025633</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6113613388172573</v>
+        <v>-0.7404790544035833</v>
       </c>
       <c r="G2" t="n">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>96.56134644311595</v>
+        <v>25.44595068520306</v>
       </c>
       <c r="I2" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="K2" t="n">
-        <v>234.5573083077799</v>
+        <v>91.01846982159361</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5747070754668</v>
+        <v>5.689930014798405</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,24 +606,24 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6955047614091907</v>
+        <v>0.6680834323079831</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7654320987654321</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1392347615364226</v>
+        <v>0.04150999142725286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9935666218078619</v>
+        <v>0.9493658324316953</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>559</v>
+        <v>1065</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>361</v>
+        <v>546</v>
       </c>
       <c r="B3" t="n">
-        <v>440</v>
+        <v>581</v>
       </c>
       <c r="C3" t="n">
-        <v>570</v>
+        <v>658</v>
       </c>
       <c r="D3" t="n">
-        <v>2.456764241423263</v>
+        <v>2.450440683614116</v>
       </c>
       <c r="E3" t="n">
-        <v>1.67269186746914</v>
+        <v>1.709961629210533</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7840723739541232</v>
+        <v>-0.7404790544035833</v>
       </c>
       <c r="G3" t="n">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>322.9525407789492</v>
+        <v>104.901553159745</v>
       </c>
       <c r="I3" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>406.9396926419086</v>
+        <v>199.8278580345632</v>
       </c>
       <c r="L3" t="n">
-        <v>9.576248474490795</v>
+        <v>8.915213009967763</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.5861769961363608</v>
+        <v>0.6875500081015967</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6076923076923076</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2505987688714686</v>
+        <v>0.04694703495251907</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6860808873392019</v>
+        <v>0.9861629810539708</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>560</v>
+        <v>1066</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>391</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>426</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>533</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>3.018170448021984</v>
+        <v>3.332625574518822</v>
       </c>
       <c r="E4" t="n">
-        <v>2.314523300164249</v>
+        <v>2.710821625434339</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7036471478577351</v>
+        <v>-0.6218039490844838</v>
       </c>
       <c r="G4" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H4" t="n">
-        <v>69.00904297876787</v>
+        <v>85.52058773012695</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J4" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K4" t="n">
-        <v>207.3843292386173</v>
+        <v>240.9008205158536</v>
       </c>
       <c r="L4" t="n">
-        <v>7.348869399915423</v>
+        <v>8.12098503451643</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.938832242314696</v>
+        <v>0.666277955389884</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3271028037383177</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2502416548077109</v>
+        <v>0.1409076078241109</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9767278530644904</v>
+        <v>0.994555170932709</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>561</v>
+        <v>1067</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>154</v>
+        <v>417</v>
       </c>
       <c r="B5" t="n">
-        <v>218</v>
+        <v>445</v>
       </c>
       <c r="C5" t="n">
-        <v>306</v>
+        <v>574</v>
       </c>
       <c r="D5" t="n">
-        <v>1.671799320510075</v>
+        <v>2.539071360273951</v>
       </c>
       <c r="E5" t="n">
-        <v>1.005030827253652</v>
+        <v>1.748348648699457</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6667684932564233</v>
+        <v>-0.7907227115744939</v>
       </c>
       <c r="G5" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H5" t="n">
-        <v>76.81642488812079</v>
+        <v>188.2286927821044</v>
       </c>
       <c r="I5" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="K5" t="n">
-        <v>164.0730739088368</v>
+        <v>331.7289661988519</v>
       </c>
       <c r="L5" t="n">
-        <v>5.87973580464521</v>
+        <v>9.992503148967907</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.6852172298834256</v>
+        <v>0.7273274463741874</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8439885501548517</v>
+        <v>0.1199482366472783</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6242812093521674</v>
+        <v>0.6710996556190294</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>562</v>
+        <v>1068</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,73 +901,73 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>444</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>504</v>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>1018</v>
       </c>
       <c r="D6" t="n">
-        <v>2.443904954640437</v>
+        <v>3.275827067405086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.977769262861979</v>
+        <v>2.959334265453254</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.466135691778458</v>
+        <v>-0.3164928019518318</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="H6" t="n">
-        <v>40.50139109605277</v>
+        <v>101.9833375367018</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>514</v>
       </c>
       <c r="K6" t="n">
-        <v>102.9786542680637</v>
+        <v>521.5559289115824</v>
       </c>
       <c r="L6" t="n">
-        <v>6.575539697891358</v>
+        <v>5.906893527263517</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(911), 'value': np.float64(1.2181114193459108), 'amplitude': np.float64(1.5346042212977427), 'start_idx': np.int64(881), 'end_idx': np.int64(942), 'duration': np.float64(61.0), 'fwhm': np.float64(37.36710386139532), 'rise_time': np.float64(30.0), 'decay_time': np.float64(31.0), 'auc': np.float64(62.94148899839132)}]</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8160591866475494</v>
+        <v>0.6936608507780044</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.1167315175097276</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2878151289427427</v>
+        <v>0.5160875024441668</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9225198558042483</v>
+        <v>0.423025165800367</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>563</v>
+        <v>1069</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>905</v>
+        <v>161</v>
       </c>
       <c r="B7" t="n">
-        <v>951</v>
+        <v>180</v>
       </c>
       <c r="C7" t="n">
-        <v>1025</v>
+        <v>210</v>
       </c>
       <c r="D7" t="n">
-        <v>2.806696403405796</v>
+        <v>3.056632153008458</v>
       </c>
       <c r="E7" t="n">
-        <v>2.236462906512211</v>
+        <v>2.422046452451358</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5702334968935845</v>
+        <v>-0.6345857005570998</v>
       </c>
       <c r="G7" t="n">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="H7" t="n">
-        <v>69.28195623546435</v>
+        <v>19.07985698112299</v>
       </c>
       <c r="I7" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>273.2747970397959</v>
+        <v>127.7504181530221</v>
       </c>
       <c r="L7" t="n">
-        <v>15.6615278131711</v>
+        <v>27.22213830364457</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.6192351592641856</v>
+        <v>0.8042254729750643</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02807882087826908</v>
+        <v>0.1707504109566336</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9003850241098831</v>
+        <v>0.9678702349112638</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>564</v>
+        <v>1070</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="C8" t="n">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="D8" t="n">
-        <v>3.079347348721871</v>
+        <v>1.942773581970401</v>
       </c>
       <c r="E8" t="n">
-        <v>2.481029234224934</v>
+        <v>1.308187881413301</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5983181144969369</v>
+        <v>-0.6345857005570998</v>
       </c>
       <c r="G8" t="n">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="H8" t="n">
-        <v>38.98672258082037</v>
+        <v>16.61263633090431</v>
       </c>
       <c r="I8" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="K8" t="n">
-        <v>285.1507132753959</v>
+        <v>193.698873624154</v>
       </c>
       <c r="L8" t="n">
-        <v>23.7122959265057</v>
+        <v>17.30219682764649</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7552925860055045</v>
+        <v>0.7808407442551267</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6401891094767307</v>
+        <v>0.4247998883347519</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7606073242714528</v>
+        <v>0.9331805001993974</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>565</v>
+        <v>1071</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>730</v>
+        <v>380</v>
       </c>
       <c r="B9" t="n">
-        <v>764</v>
+        <v>406</v>
       </c>
       <c r="C9" t="n">
-        <v>909</v>
+        <v>492</v>
       </c>
       <c r="D9" t="n">
-        <v>1.875964364728087</v>
+        <v>0.573020297521779</v>
       </c>
       <c r="E9" t="n">
-        <v>1.286425789418026</v>
+        <v>-0.06156540303532089</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.589538575310061</v>
+        <v>-0.6345857005570998</v>
       </c>
       <c r="G9" t="n">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="H9" t="n">
-        <v>39.06503050246431</v>
+        <v>68.52013994442387</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="K9" t="n">
-        <v>172.0546250040675</v>
+        <v>49.56596623104131</v>
       </c>
       <c r="L9" t="n">
-        <v>11.92384485338967</v>
+        <v>5.103276092473356</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8399310219431571</v>
+        <v>0.7714890908741638</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2344827586206897</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3168976775239055</v>
+        <v>0.09500844561135276</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7547303557715415</v>
+        <v>0.7596450747035596</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>566</v>
+        <v>1072</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>909</v>
+        <v>757</v>
       </c>
       <c r="B10" t="n">
-        <v>953</v>
+        <v>863</v>
       </c>
       <c r="C10" t="n">
         <v>1025</v>
       </c>
       <c r="D10" t="n">
-        <v>3.207187883129591</v>
+        <v>2.769693740808389</v>
       </c>
       <c r="E10" t="n">
-        <v>2.61764930781953</v>
+        <v>2.377832544268072</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.589538575310061</v>
+        <v>-0.3918611965403173</v>
       </c>
       <c r="G10" t="n">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="H10" t="n">
-        <v>56.74061123083436</v>
+        <v>76.77097801899083</v>
       </c>
       <c r="I10" t="n">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J10" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="K10" t="n">
-        <v>233.7358080210915</v>
+        <v>345.4769660328772</v>
       </c>
       <c r="L10" t="n">
-        <v>20.38525435404605</v>
+        <v>4.092749287776691</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8193431675582019</v>
+        <v>0.5298833995514086</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.654320987654321</v>
       </c>
       <c r="R10" t="n">
-        <v>0.295223457691223</v>
+        <v>1.155091464445347</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9385372429523559</v>
+        <v>0.5043814007021277</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>567</v>
+        <v>1073</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>909</v>
+        <v>395</v>
       </c>
       <c r="B11" t="n">
-        <v>950</v>
+        <v>421</v>
       </c>
       <c r="C11" t="n">
-        <v>1025</v>
+        <v>540</v>
       </c>
       <c r="D11" t="n">
-        <v>3.577145369903937</v>
+        <v>3.236976785452877</v>
       </c>
       <c r="E11" t="n">
-        <v>3.083320480304888</v>
+        <v>2.561443075299958</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4938248895990488</v>
+        <v>-0.6755337101529189</v>
       </c>
       <c r="G11" t="n">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="H11" t="n">
-        <v>43.25712863392232</v>
+        <v>67.21415163877504</v>
       </c>
       <c r="I11" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="K11" t="n">
-        <v>236.0488409181901</v>
+        <v>207.0970523151208</v>
       </c>
       <c r="L11" t="n">
-        <v>9.959146384258855</v>
+        <v>7.841153259847735</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,36 +1380,1068 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7694870406968748</v>
+        <v>0.9357181263921107</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5466666666666666</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3267575581972325</v>
+        <v>0.3046036632939863</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5019353788215444</v>
+        <v>0.9724758646001087</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>1074</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>540</v>
+      </c>
+      <c r="B12" t="n">
+        <v>570</v>
+      </c>
+      <c r="C12" t="n">
+        <v>658</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.341162448554669</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.66562873840175</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.6755337101529189</v>
+      </c>
+      <c r="G12" t="n">
+        <v>118</v>
+      </c>
+      <c r="H12" t="n">
+        <v>51.92670031209377</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>170.4134543483376</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.6711600922863</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.939847666045213</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3409090909090909</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2544549557080534</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.961821124850054</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>1075</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>109</v>
+      </c>
+      <c r="B13" t="n">
+        <v>132</v>
+      </c>
+      <c r="C13" t="n">
+        <v>170</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.347071506131068</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8693615742205101</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.477709931910558</v>
+      </c>
+      <c r="G13" t="n">
+        <v>61</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25.67755858700481</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>44.96615676155574</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.044072316882882</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8258282142576993</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.6052631578947368</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2591545936438167</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8796768743173872</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>1076</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>910</v>
+      </c>
+      <c r="B14" t="n">
+        <v>941</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.942658502899066</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.363824969549535</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.5788335333495314</v>
+      </c>
+      <c r="G14" t="n">
+        <v>115</v>
+      </c>
+      <c r="H14" t="n">
+        <v>65.05324598819993</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>84</v>
+      </c>
+      <c r="K14" t="n">
+        <v>266.36673120692</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16.54199442917514</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7673768679848341</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3690476190476191</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1003321679742166</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.8458869494072504</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>1077</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>186</v>
+      </c>
+      <c r="B15" t="n">
+        <v>215</v>
+      </c>
+      <c r="C15" t="n">
+        <v>346</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.67228026075298</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9838956400093641</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.6883846207436155</v>
+      </c>
+      <c r="G15" t="n">
+        <v>160</v>
+      </c>
+      <c r="H15" t="n">
+        <v>44.94707691294619</v>
+      </c>
+      <c r="I15" t="n">
+        <v>29</v>
+      </c>
+      <c r="J15" t="n">
+        <v>131</v>
+      </c>
+      <c r="K15" t="n">
+        <v>164.1574481855053</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.648532054312104</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8373717440027308</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2213740458015267</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.3276784104814469</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.6268109636211647</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>1078</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>110</v>
+      </c>
+      <c r="B16" t="n">
+        <v>142</v>
+      </c>
+      <c r="C16" t="n">
+        <v>233</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.165305215251262</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.578973580879895</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.5863316343713671</v>
+      </c>
+      <c r="G16" t="n">
+        <v>123</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37.82452555842278</v>
+      </c>
+      <c r="I16" t="n">
+        <v>32</v>
+      </c>
+      <c r="J16" t="n">
+        <v>91</v>
+      </c>
+      <c r="K16" t="n">
+        <v>226.0699496193639</v>
+      </c>
+      <c r="L16" t="n">
+        <v>24.24124202830516</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9220229420804207</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3516483516483517</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4225402561355663</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.9798294537741128</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>1079</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>233</v>
+      </c>
+      <c r="B17" t="n">
+        <v>249</v>
+      </c>
+      <c r="C17" t="n">
+        <v>273</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.684389302215985</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.09805766784461795</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.5863316343713671</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.83371120940726</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>24</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22.73887829720272</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.241341857544575</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6641313650244098</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.06769561491168216</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9226364366939265</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>273</v>
+      </c>
+      <c r="B18" t="n">
+        <v>292</v>
+      </c>
+      <c r="C18" t="n">
+        <v>319</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.76859873889664</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1822671045252729</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.5863316343713671</v>
+      </c>
+      <c r="G18" t="n">
+        <v>46</v>
+      </c>
+      <c r="H18" t="n">
+        <v>22.06182945006992</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>27</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24.99658764923785</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.886253231590681</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0.7681663894516106</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2137673000506414</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8334342792663489</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>1081</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>795</v>
+      </c>
+      <c r="B19" t="n">
+        <v>826</v>
+      </c>
+      <c r="C19" t="n">
+        <v>903</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.296931570829702</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.581128962416278</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.715802608413423</v>
+      </c>
+      <c r="G19" t="n">
+        <v>108</v>
+      </c>
+      <c r="H19" t="n">
+        <v>96.88021724178407</v>
+      </c>
+      <c r="I19" t="n">
+        <v>31</v>
+      </c>
+      <c r="J19" t="n">
+        <v>77</v>
+      </c>
+      <c r="K19" t="n">
+        <v>154.0147372263383</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.039368803834799</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8279090767142057</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4025974025974026</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4179705698590794</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8042336387843636</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>1082</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>734</v>
+      </c>
+      <c r="B20" t="n">
+        <v>759</v>
+      </c>
+      <c r="C20" t="n">
+        <v>791</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.072072506312121</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.474111385512567</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5979611207995534</v>
+      </c>
+      <c r="G20" t="n">
+        <v>57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>35.16900197490202</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>75.53476464884876</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12.22045595997145</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0.771525028074287</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.289130421876379</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.995931169646911</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>1083</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>915</v>
+      </c>
+      <c r="B21" t="n">
+        <v>948</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.459172092920936</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.861210972121382</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.5979611207995534</v>
+      </c>
+      <c r="G21" t="n">
+        <v>110</v>
+      </c>
+      <c r="H21" t="n">
+        <v>31.52564614308471</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>77</v>
+      </c>
+      <c r="K21" t="n">
+        <v>230.1551227529124</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20.40114913485317</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8647062376973612</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.3385050353116005</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.9242913371199314</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>1084</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>835</v>
+      </c>
+      <c r="B22" t="n">
+        <v>863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>906</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.116467640169468</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.572163546165152</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.5443040940043162</v>
+      </c>
+      <c r="G22" t="n">
+        <v>71</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27.81268236675953</v>
+      </c>
+      <c r="I22" t="n">
+        <v>28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>43</v>
+      </c>
+      <c r="K22" t="n">
+        <v>126.966476372315</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.246173805619913</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0.6480964763256045</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.6511627906976745</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1634546315499878</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.9771210757785466</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>1085</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>914</v>
+      </c>
+      <c r="B23" t="n">
+        <v>944</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.928498226371113</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.424709846165058</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.5037883802060554</v>
+      </c>
+      <c r="G23" t="n">
+        <v>111</v>
+      </c>
+      <c r="H23" t="n">
+        <v>42.18165072888223</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30</v>
+      </c>
+      <c r="J23" t="n">
+        <v>81</v>
+      </c>
+      <c r="K23" t="n">
+        <v>236.6628358426511</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10.89079964078075</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8545338319079118</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.2966864581576695</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.5584603276955578</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
           <t>n26</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>568</v>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="U23" t="n">
+        <v>1086</v>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace/processed_EMNO2979241011csdsday3CellVideo22024-10-1111-41-59trace_transients.xlsx
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1065</v>
+        <v>1123</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1066</v>
+        <v>1124</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1067</v>
+        <v>1125</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1068</v>
+        <v>1126</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1069</v>
+        <v>1127</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1070</v>
+        <v>1128</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1071</v>
+        <v>1129</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1072</v>
+        <v>1130</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1073</v>
+        <v>1131</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1074</v>
+        <v>1132</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1075</v>
+        <v>1133</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1076</v>
+        <v>1134</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1077</v>
+        <v>1135</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1078</v>
+        <v>1136</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1079</v>
+        <v>1137</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1080</v>
+        <v>1138</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1081</v>
+        <v>1139</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1082</v>
+        <v>1140</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1083</v>
+        <v>1141</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1084</v>
+        <v>1142</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1085</v>
+        <v>1143</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1086</v>
+        <v>1144</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
